--- a/MI6_FinalProject_Plan.xlsx
+++ b/MI6_FinalProject_Plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWE0227\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jenni Temp\2021FA_SGD285_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F5F09C-E3E9-469E-B1FC-9A1376FBD2FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="33870" yWindow="540" windowWidth="15465" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Project Lead:</t>
   </si>
@@ -54,12 +55,48 @@
   </si>
   <si>
     <t>Final Project</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Zacari</t>
+  </si>
+  <si>
+    <t>Sound/FX</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Art-Tileset</t>
+  </si>
+  <si>
+    <t>Art-Character</t>
+  </si>
+  <si>
+    <t>Art-Enemies</t>
+  </si>
+  <si>
+    <t>Art-FX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -477,33 +514,53 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -513,27 +570,43 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -586,12 +659,12 @@
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B23"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C23"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimated completion date" prompt="Enter the expected due date for the feature." sqref="B3 B7:B23" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Who is in charge of the feature?" prompt="Enter the name of the teammate who is lead for the feature." sqref="C3 C7:C23" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MI6_FinalProject_Plan.xlsx
+++ b/MI6_FinalProject_Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jenni Temp\2021FA_SGD285_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lane\MI6\2021FA_SGD285_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F5F09C-E3E9-469E-B1FC-9A1376FBD2FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFE279-8546-43FC-999D-F2595B5E59EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33870" yWindow="540" windowWidth="15465" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t>Project Lead:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Estimated Implementation</t>
   </si>
@@ -57,40 +54,52 @@
     <t>Final Project</t>
   </si>
   <si>
-    <t>UI</t>
-  </si>
-  <si>
     <t>Zacari</t>
   </si>
   <si>
-    <t>Sound/FX</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
     <t>Jennifer</t>
   </si>
   <si>
-    <t>Animations</t>
-  </si>
-  <si>
-    <t>Programming</t>
-  </si>
-  <si>
     <t>Mike</t>
   </si>
   <si>
-    <t>Art-Tileset</t>
-  </si>
-  <si>
-    <t>Art-Character</t>
-  </si>
-  <si>
-    <t>Art-Enemies</t>
-  </si>
-  <si>
-    <t>Art-FX</t>
+    <t>Project Lead: Shared</t>
+  </si>
+  <si>
+    <t>UI: On Screen Text</t>
+  </si>
+  <si>
+    <t>Art: Tileset</t>
+  </si>
+  <si>
+    <t>Art: Character</t>
+  </si>
+  <si>
+    <t>Art: Enemies</t>
+  </si>
+  <si>
+    <t>Art: FX</t>
+  </si>
+  <si>
+    <t>Art: Animations</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>PROGRAMMING</t>
+  </si>
+  <si>
+    <t>USER INTERFACE &amp; AUDIO</t>
+  </si>
+  <si>
+    <t>Audio: Sound Effects</t>
+  </si>
+  <si>
+    <t>Audio: Music</t>
+  </si>
+  <si>
+    <t>UI: Menu Screens &amp; Navigation</t>
   </si>
 </sst>
 </file>
@@ -113,7 +122,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -154,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -164,17 +173,141 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -452,41 +585,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
+      <c r="A1" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
+      <c r="A2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -494,7 +627,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -502,7 +635,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -510,56 +643,56 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
+      <c r="A7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -570,42 +703,36 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
+      <c r="A13" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -616,48 +743,110 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D23">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",D8)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$D$4:$D$6</formula1>
@@ -667,5 +856,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Use the dropdown menu to choose: Not implemented, In Progress or Done." sqref="D3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MI6_FinalProject_Plan.xlsx
+++ b/MI6_FinalProject_Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lane\MI6\2021FA_SGD285_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingm\Documents\GitHub\2021FA_SGD285_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFE279-8546-43FC-999D-F2595B5E59EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FC6A75-4C75-4977-908C-603B18392A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Estimated Implementation</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>UI: Menu Screens &amp; Navigation</t>
+  </si>
+  <si>
+    <t>Programming: Character Movement</t>
+  </si>
+  <si>
+    <t>Programming: Enemy AI</t>
   </si>
 </sst>
 </file>
@@ -186,87 +192,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -289,11 +215,31 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -585,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -713,7 +659,9 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -721,7 +669,9 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>11</v>
@@ -818,24 +768,24 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Not Implemented">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Not Implemented">
       <formula>NOT(ISERROR(SEARCH("Not Implemented",D8)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">

--- a/MI6_FinalProject_Plan.xlsx
+++ b/MI6_FinalProject_Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingm\Documents\GitHub\2021FA_SGD285_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School Assignments\2021FA.SGD.285.2141 - Software Engineering\Project 3 - Final Project\2021FA_SGD285_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FC6A75-4C75-4977-908C-603B18392A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5F7F07-EC15-4F5A-ACF2-4902BB9EDDEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Estimated Implementation</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Programming: Enemy AI</t>
+  </si>
+  <si>
+    <t>Ongoing as needed</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -187,6 +190,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -706,51 +712,71 @@
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="8">
+        <v>44524</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="8">
+        <v>44517</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="8">
+        <v>44517</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="8">
+        <v>44524</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
